--- a/data/c5/cfus_at.xlsx
+++ b/data/c5/cfus_at.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t xml:space="preserve">Experiment: C5 batch 28,38,43,33 Mitri setup     Plates:</t>
   </si>
@@ -43,13 +43,43 @@
     <t xml:space="preserve">M0</t>
   </si>
   <si>
+    <t xml:space="preserve">33|33|34</t>
+  </si>
+  <si>
     <t xml:space="preserve">M1</t>
   </si>
   <si>
+    <t xml:space="preserve">0|0|0</t>
+  </si>
+  <si>
     <t xml:space="preserve">M4</t>
   </si>
   <si>
     <t xml:space="preserve">M5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33|33|33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7|6|7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6|8|6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11|8|12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26|22|28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7|5|6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36|35|36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11|4|7</t>
   </si>
 </sst>
 </file>
@@ -60,7 +90,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -87,6 +117,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,7 +173,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -160,6 +195,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -186,8 +225,8 @@
   </sheetPr>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -228,108 +267,180 @@
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="5" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-6</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-6</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="5" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-6</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -341,87 +452,87 @@
     </row>
     <row r="16" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
